--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_7_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1556004.01005992</v>
+        <v>1552579.920051776</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2318102.03527345</v>
+        <v>2369154.465229092</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9411240.858705444</v>
+        <v>9407329.296435224</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>272.9603926839139</v>
+        <v>332.0043016257009</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -786,13 +786,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>76.25208532140277</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>92.04114660352089</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -817,10 +817,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>55.70423636080953</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.19498005719299</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>231.9908691569659</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>99.5384387118913</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.55120090019668</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>52.23042469047397</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15.94770139382629</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>66.84876875590173</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1145,13 +1145,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>368.008451100715</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>145.570014831578</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>97.61153143263792</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309.7164818967184</v>
+        <v>311.9222103087354</v>
       </c>
       <c r="C11" t="n">
-        <v>302.4704301245342</v>
+        <v>304.6761585365512</v>
       </c>
       <c r="D11" t="n">
-        <v>294.8134011379345</v>
+        <v>297.0191295499515</v>
       </c>
       <c r="E11" t="n">
-        <v>311.7843732770564</v>
+        <v>313.9901016890734</v>
       </c>
       <c r="F11" t="n">
-        <v>160.8320808689532</v>
+        <v>328.1579061397745</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>324.4635400113293</v>
       </c>
       <c r="H11" t="n">
-        <v>234.0689035716098</v>
+        <v>236.2746319836267</v>
       </c>
       <c r="I11" t="n">
-        <v>50.18042938089535</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>78.07510315079547</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>134.492280058613</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>5.22504485797009</v>
       </c>
       <c r="V11" t="n">
-        <v>251.9124248459523</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>280.515728323831</v>
+        <v>282.7214567358479</v>
       </c>
       <c r="X11" t="n">
-        <v>298.7847626587093</v>
+        <v>300.9904910707262</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.7524856310404</v>
+        <v>307.9582140430574</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>98.78835055884076</v>
       </c>
       <c r="C13" t="n">
-        <v>81.7297503971062</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>67.30346560894593</v>
+        <v>69.50919402096289</v>
       </c>
       <c r="E13" t="n">
-        <v>67.22990766182504</v>
+        <v>69.43563607384201</v>
       </c>
       <c r="F13" t="n">
-        <v>68.97935908159231</v>
+        <v>71.18508749360927</v>
       </c>
       <c r="G13" t="n">
-        <v>79.79819700398444</v>
+        <v>82.00392541600141</v>
       </c>
       <c r="H13" t="n">
-        <v>67.15044917055648</v>
+        <v>69.35617758257345</v>
       </c>
       <c r="I13" t="n">
-        <v>44.99016475172841</v>
+        <v>47.19589316374538</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.88866311618433</v>
+        <v>38.0943915282013</v>
       </c>
       <c r="S13" t="n">
-        <v>114.0146066217116</v>
+        <v>116.2203350337286</v>
       </c>
       <c r="T13" t="n">
-        <v>146.5885449558837</v>
+        <v>8.061526381948665</v>
       </c>
       <c r="U13" t="n">
-        <v>195.8110874829536</v>
+        <v>198.0168158949706</v>
       </c>
       <c r="V13" t="n">
-        <v>101.0469616467824</v>
+        <v>178.7519637818365</v>
       </c>
       <c r="W13" t="n">
-        <v>193.7237816905697</v>
+        <v>195.9295101025866</v>
       </c>
       <c r="X13" t="n">
-        <v>144.9662026372823</v>
+        <v>147.1719310492992</v>
       </c>
       <c r="Y13" t="n">
-        <v>134.1076242139586</v>
+        <v>136.3133526259756</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>99.40041517349894</v>
       </c>
       <c r="E14" t="n">
         <v>304.5664151603045</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414339</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>36.20029912605564</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723248</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1831,7 +1831,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277688</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059308</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875401</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277554</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>199.0126464481362</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>118.0051705940009</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,16 +2767,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418611</v>
+        <v>77.31775365371975</v>
       </c>
       <c r="U29" t="n">
         <v>159.203927795431</v>
@@ -2855,7 +2855,7 @@
         <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
-        <v>88.72606400743813</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142885</v>
@@ -2965,10 +2965,10 @@
         <v>72.58023888723248</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380452</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497646</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3041,13 +3041,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3089,10 +3089,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
         <v>262.1658326730205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H34" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875429</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277557</v>
       </c>
       <c r="T35" t="n">
         <v>90.90562710059314</v>
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,7 +3512,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412925</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277557</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.9290753658111</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978639</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277557</v>
       </c>
       <c r="T41" t="n">
         <v>90.90562710059314</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>273.3477870554505</v>
+        <v>275.5535154674675</v>
       </c>
       <c r="C44" t="n">
-        <v>157.8323635319865</v>
+        <v>268.3074636952833</v>
       </c>
       <c r="D44" t="n">
-        <v>258.4447062966665</v>
+        <v>260.6504347086835</v>
       </c>
       <c r="E44" t="n">
-        <v>275.4156784357884</v>
+        <v>277.6214068478055</v>
       </c>
       <c r="F44" t="n">
-        <v>289.5834828864895</v>
+        <v>291.7892112985066</v>
       </c>
       <c r="G44" t="n">
-        <v>285.8891167580444</v>
+        <v>288.0948451700614</v>
       </c>
       <c r="H44" t="n">
-        <v>197.7002087303418</v>
+        <v>199.9059371423588</v>
       </c>
       <c r="I44" t="n">
-        <v>13.81173453962737</v>
+        <v>16.01746295164439</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S44" t="n">
-        <v>41.70640830952749</v>
+        <v>43.91213672154449</v>
       </c>
       <c r="T44" t="n">
-        <v>98.12358521734504</v>
+        <v>100.3293136293621</v>
       </c>
       <c r="U44" t="n">
-        <v>130.0531910709149</v>
+        <v>132.258919482932</v>
       </c>
       <c r="V44" t="n">
-        <v>215.5437300046843</v>
+        <v>217.7494584167014</v>
       </c>
       <c r="W44" t="n">
-        <v>244.147033482563</v>
+        <v>246.35276189458</v>
       </c>
       <c r="X44" t="n">
-        <v>262.4160678174413</v>
+        <v>264.6217962294583</v>
       </c>
       <c r="Y44" t="n">
-        <v>269.3837907897724</v>
+        <v>130.234221270255</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60.21392730555581</v>
+        <v>62.41965571757284</v>
       </c>
       <c r="C46" t="n">
-        <v>45.36105555583822</v>
+        <v>47.56678396785524</v>
       </c>
       <c r="D46" t="n">
-        <v>30.93477076767795</v>
+        <v>33.14049917969497</v>
       </c>
       <c r="E46" t="n">
-        <v>30.86121282055706</v>
+        <v>33.06694123257408</v>
       </c>
       <c r="F46" t="n">
-        <v>32.61066424032433</v>
+        <v>34.81639265234135</v>
       </c>
       <c r="G46" t="n">
-        <v>43.42950216271646</v>
+        <v>45.63523057473348</v>
       </c>
       <c r="H46" t="n">
-        <v>30.7817543292885</v>
+        <v>32.98748274130553</v>
       </c>
       <c r="I46" t="n">
-        <v>8.621469910460434</v>
+        <v>10.82719832247746</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.725696686933375</v>
       </c>
       <c r="S46" t="n">
-        <v>77.64591178044367</v>
+        <v>79.85164019246069</v>
       </c>
       <c r="T46" t="n">
-        <v>110.2198501146158</v>
+        <v>112.4255785266328</v>
       </c>
       <c r="U46" t="n">
-        <v>159.4423926416856</v>
+        <v>161.6481210537027</v>
       </c>
       <c r="V46" t="n">
-        <v>140.1775405285516</v>
+        <v>142.3832689405686</v>
       </c>
       <c r="W46" t="n">
-        <v>157.3550868493017</v>
+        <v>159.5608152613187</v>
       </c>
       <c r="X46" t="n">
-        <v>108.5975077960143</v>
+        <v>110.8032362080313</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.73892937269062</v>
+        <v>99.94465778470764</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.2287381451169</v>
+        <v>1331.035091076291</v>
       </c>
       <c r="C2" t="n">
-        <v>927.2287381451169</v>
+        <v>1331.035091076291</v>
       </c>
       <c r="D2" t="n">
-        <v>927.2287381451169</v>
+        <v>1331.035091076291</v>
       </c>
       <c r="E2" t="n">
-        <v>524.6452132616614</v>
+        <v>1331.035091076291</v>
       </c>
       <c r="F2" t="n">
-        <v>511.7911788320432</v>
+        <v>914.1406526062685</v>
       </c>
       <c r="G2" t="n">
-        <v>502.6688273604505</v>
+        <v>500.9778970942716</v>
       </c>
       <c r="H2" t="n">
-        <v>178.5857769269411</v>
+        <v>176.8948466607623</v>
       </c>
       <c r="I2" t="n">
-        <v>40.24866001940589</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="J2" t="n">
-        <v>184.898432928234</v>
+        <v>183.2075026620552</v>
       </c>
       <c r="K2" t="n">
-        <v>543.8807889556958</v>
+        <v>183.2075026620552</v>
       </c>
       <c r="L2" t="n">
-        <v>1037.201080674225</v>
+        <v>348.6975152357065</v>
       </c>
       <c r="M2" t="n">
-        <v>1037.201080674225</v>
+        <v>825.8494209318915</v>
       </c>
       <c r="N2" t="n">
-        <v>1039.360347805496</v>
+        <v>1303.001326628076</v>
       </c>
       <c r="O2" t="n">
-        <v>1479.399948697824</v>
+        <v>1743.040927520405</v>
       </c>
       <c r="P2" t="n">
-        <v>1827.587440829346</v>
+        <v>1743.040927520405</v>
       </c>
       <c r="Q2" t="n">
-        <v>2012.433000970294</v>
+        <v>1927.886487661353</v>
       </c>
       <c r="R2" t="n">
-        <v>1974.440087255816</v>
+        <v>1889.893573946875</v>
       </c>
       <c r="S2" t="n">
-        <v>1974.440087255816</v>
+        <v>1889.893573946875</v>
       </c>
       <c r="T2" t="n">
-        <v>1974.440087255816</v>
+        <v>1666.392971506292</v>
       </c>
       <c r="U2" t="n">
-        <v>1974.440087255816</v>
+        <v>1666.392971506292</v>
       </c>
       <c r="V2" t="n">
-        <v>1974.440087255816</v>
+        <v>1666.392971506292</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.441052224104</v>
+        <v>1666.392971506292</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.441052224104</v>
+        <v>1666.392971506292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.723483856514</v>
+        <v>1331.035091076291</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703.1681522703246</v>
+        <v>837.923712893258</v>
       </c>
       <c r="C3" t="n">
-        <v>552.5139218304168</v>
+        <v>687.2694824533502</v>
       </c>
       <c r="D3" t="n">
-        <v>422.4249544518971</v>
+        <v>557.1805150748305</v>
       </c>
       <c r="E3" t="n">
-        <v>422.4249544518971</v>
+        <v>420.7340241857183</v>
       </c>
       <c r="F3" t="n">
-        <v>297.9931483350289</v>
+        <v>296.3022180688501</v>
       </c>
       <c r="G3" t="n">
-        <v>177.9333304068934</v>
+        <v>176.2424001407146</v>
       </c>
       <c r="H3" t="n">
-        <v>89.63591400749431</v>
+        <v>87.94498374131548</v>
       </c>
       <c r="I3" t="n">
-        <v>40.24866001940589</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="J3" t="n">
-        <v>40.24866001940589</v>
+        <v>151.6727119729545</v>
       </c>
       <c r="K3" t="n">
-        <v>40.24866001940589</v>
+        <v>471.4118580351809</v>
       </c>
       <c r="L3" t="n">
-        <v>523.8147459177192</v>
+        <v>948.5637637313658</v>
       </c>
       <c r="M3" t="n">
-        <v>874.3693729588585</v>
+        <v>1425.715669427551</v>
       </c>
       <c r="N3" t="n">
-        <v>1372.446540699006</v>
+        <v>1425.715669427551</v>
       </c>
       <c r="O3" t="n">
-        <v>1372.446540699006</v>
+        <v>1693.521396106463</v>
       </c>
       <c r="P3" t="n">
-        <v>1778.067909415404</v>
+        <v>1693.521396106463</v>
       </c>
       <c r="Q3" t="n">
-        <v>2012.433000970294</v>
+        <v>1927.886487661353</v>
       </c>
       <c r="R3" t="n">
-        <v>1988.515957868359</v>
+        <v>1903.969444559418</v>
       </c>
       <c r="S3" t="n">
-        <v>1911.493649462902</v>
+        <v>1903.969444559418</v>
       </c>
       <c r="T3" t="n">
-        <v>1734.50983766181</v>
+        <v>1810.998589404346</v>
       </c>
       <c r="U3" t="n">
-        <v>1524.446694340452</v>
+        <v>1810.998589404346</v>
       </c>
       <c r="V3" t="n">
-        <v>1301.906692711519</v>
+        <v>1588.458587775413</v>
       </c>
       <c r="W3" t="n">
-        <v>1071.789446844806</v>
+        <v>1358.3413419087</v>
       </c>
       <c r="X3" t="n">
-        <v>882.4823691948175</v>
+        <v>1169.034264258712</v>
       </c>
       <c r="Y3" t="n">
-        <v>703.1681522703246</v>
+        <v>989.7200473342193</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.6715800522063</v>
+        <v>407.7836830526985</v>
       </c>
       <c r="C4" t="n">
-        <v>383.4664621181955</v>
+        <v>351.5167776377394</v>
       </c>
       <c r="D4" t="n">
-        <v>383.4664621181955</v>
+        <v>195.8836645402541</v>
       </c>
       <c r="E4" t="n">
-        <v>383.4664621181955</v>
+        <v>195.8836645402541</v>
       </c>
       <c r="F4" t="n">
-        <v>226.1405273311685</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="G4" t="n">
-        <v>226.1405273311685</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="H4" t="n">
-        <v>203.7213555562261</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="I4" t="n">
-        <v>70.62693019330393</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="J4" t="n">
-        <v>40.24866001940589</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="K4" t="n">
-        <v>122.0837011293478</v>
+        <v>120.3927708631689</v>
       </c>
       <c r="L4" t="n">
-        <v>286.2113410031475</v>
+        <v>284.5204107369688</v>
       </c>
       <c r="M4" t="n">
-        <v>472.5029193414116</v>
+        <v>470.8119890752328</v>
       </c>
       <c r="N4" t="n">
-        <v>655.6925533726208</v>
+        <v>654.0016231064419</v>
       </c>
       <c r="O4" t="n">
-        <v>818.3973204143288</v>
+        <v>816.7063901481499</v>
       </c>
       <c r="P4" t="n">
-        <v>938.2734861909073</v>
+        <v>936.5825559247285</v>
       </c>
       <c r="Q4" t="n">
-        <v>941.6956825609583</v>
+        <v>940.0047522947795</v>
       </c>
       <c r="R4" t="n">
-        <v>941.6956825609583</v>
+        <v>816.1037629273565</v>
       </c>
       <c r="S4" t="n">
-        <v>738.8795987435076</v>
+        <v>816.1037629273565</v>
       </c>
       <c r="T4" t="n">
-        <v>738.8795987435076</v>
+        <v>816.1037629273565</v>
       </c>
       <c r="U4" t="n">
-        <v>738.8795987435076</v>
+        <v>816.1037629273565</v>
       </c>
       <c r="V4" t="n">
-        <v>738.8795987435076</v>
+        <v>816.1037629273565</v>
       </c>
       <c r="W4" t="n">
-        <v>738.8795987435076</v>
+        <v>816.1037629273565</v>
       </c>
       <c r="X4" t="n">
-        <v>738.8795987435076</v>
+        <v>816.1037629273565</v>
       </c>
       <c r="Y4" t="n">
-        <v>738.8795987435076</v>
+        <v>592.9917017439998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.066993334984</v>
+        <v>602.9116366023773</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.066993334984</v>
+        <v>602.9116366023773</v>
       </c>
       <c r="D5" t="n">
-        <v>824.6258645516518</v>
+        <v>602.9116366023773</v>
       </c>
       <c r="E5" t="n">
-        <v>422.0423396681963</v>
+        <v>602.9116366023773</v>
       </c>
       <c r="F5" t="n">
-        <v>187.7081283985338</v>
+        <v>590.0576021727591</v>
       </c>
       <c r="G5" t="n">
-        <v>178.5857769269411</v>
+        <v>176.8948466607623</v>
       </c>
       <c r="H5" t="n">
-        <v>178.5857769269411</v>
+        <v>176.8948466607623</v>
       </c>
       <c r="I5" t="n">
-        <v>40.24866001940589</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="J5" t="n">
-        <v>40.24866001940589</v>
+        <v>183.2075026620552</v>
       </c>
       <c r="K5" t="n">
-        <v>40.24866001940589</v>
+        <v>542.189858689517</v>
       </c>
       <c r="L5" t="n">
-        <v>533.5689517379348</v>
+        <v>1019.341764385702</v>
       </c>
       <c r="M5" t="n">
-        <v>1031.646119478083</v>
+        <v>1303.001326628076</v>
       </c>
       <c r="N5" t="n">
-        <v>1529.723287218231</v>
+        <v>1303.001326628076</v>
       </c>
       <c r="O5" t="n">
-        <v>1969.762888110559</v>
+        <v>1743.040927520405</v>
       </c>
       <c r="P5" t="n">
-        <v>2012.433000970294</v>
+        <v>1743.040927520405</v>
       </c>
       <c r="Q5" t="n">
-        <v>2012.433000970294</v>
+        <v>1927.886487661353</v>
       </c>
       <c r="R5" t="n">
-        <v>1974.440087255816</v>
+        <v>1889.893573946875</v>
       </c>
       <c r="S5" t="n">
-        <v>1807.926532196867</v>
+        <v>1889.893573946875</v>
       </c>
       <c r="T5" t="n">
-        <v>1807.926532196867</v>
+        <v>1889.893573946875</v>
       </c>
       <c r="U5" t="n">
-        <v>1552.173802631466</v>
+        <v>1889.893573946875</v>
       </c>
       <c r="V5" t="n">
-        <v>1210.066993334984</v>
+        <v>1789.349696460116</v>
       </c>
       <c r="W5" t="n">
-        <v>1210.066993334984</v>
+        <v>1789.349696460116</v>
       </c>
       <c r="X5" t="n">
-        <v>1210.066993334984</v>
+        <v>1399.897091393173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.066993334984</v>
+        <v>1003.406382313774</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>839.6146431594368</v>
+        <v>740.0274871912027</v>
       </c>
       <c r="C6" t="n">
-        <v>688.960412719529</v>
+        <v>687.2694824533502</v>
       </c>
       <c r="D6" t="n">
-        <v>558.8714453410093</v>
+        <v>557.1805150748305</v>
       </c>
       <c r="E6" t="n">
-        <v>422.4249544518971</v>
+        <v>420.7340241857183</v>
       </c>
       <c r="F6" t="n">
-        <v>297.9931483350289</v>
+        <v>296.3022180688501</v>
       </c>
       <c r="G6" t="n">
-        <v>177.9333304068934</v>
+        <v>176.2424001407146</v>
       </c>
       <c r="H6" t="n">
-        <v>89.63591400749431</v>
+        <v>87.94498374131548</v>
       </c>
       <c r="I6" t="n">
-        <v>40.24866001940589</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="J6" t="n">
-        <v>153.3636422391333</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="K6" t="n">
-        <v>390.8032870605453</v>
+        <v>358.2968758154535</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3693729588585</v>
+        <v>810.7481216938804</v>
       </c>
       <c r="M6" t="n">
-        <v>874.3693729588585</v>
+        <v>810.7481216938804</v>
       </c>
       <c r="N6" t="n">
-        <v>874.3693729588585</v>
+        <v>810.7481216938804</v>
       </c>
       <c r="O6" t="n">
-        <v>1372.446540699006</v>
+        <v>1287.900027390065</v>
       </c>
       <c r="P6" t="n">
-        <v>1778.067909415404</v>
+        <v>1693.521396106463</v>
       </c>
       <c r="Q6" t="n">
-        <v>2012.433000970294</v>
+        <v>1927.886487661353</v>
       </c>
       <c r="R6" t="n">
-        <v>1988.515957868359</v>
+        <v>1903.969444559418</v>
       </c>
       <c r="S6" t="n">
-        <v>1853.585280768228</v>
+        <v>1769.038767459287</v>
       </c>
       <c r="T6" t="n">
-        <v>1676.601468967136</v>
+        <v>1592.054955658195</v>
       </c>
       <c r="U6" t="n">
-        <v>1676.601468967136</v>
+        <v>1381.991812336837</v>
       </c>
       <c r="V6" t="n">
-        <v>1454.061467338203</v>
+        <v>1159.451810707904</v>
       </c>
       <c r="W6" t="n">
-        <v>1223.94422147149</v>
+        <v>929.334564841191</v>
       </c>
       <c r="X6" t="n">
-        <v>1034.637143821502</v>
+        <v>740.0274871912027</v>
       </c>
       <c r="Y6" t="n">
-        <v>855.3229268970092</v>
+        <v>740.0274871912027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>486.1475712078611</v>
+        <v>218.1392145767405</v>
       </c>
       <c r="C7" t="n">
-        <v>486.1475712078611</v>
+        <v>218.1392145767405</v>
       </c>
       <c r="D7" t="n">
-        <v>486.1475712078611</v>
+        <v>202.0304252900472</v>
       </c>
       <c r="E7" t="n">
-        <v>486.1475712078611</v>
+        <v>202.0304252900472</v>
       </c>
       <c r="F7" t="n">
-        <v>328.821636420834</v>
+        <v>202.0304252900472</v>
       </c>
       <c r="G7" t="n">
-        <v>328.821636420834</v>
+        <v>202.0304252900472</v>
       </c>
       <c r="H7" t="n">
-        <v>173.343085382328</v>
+        <v>202.0304252900472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.24866001940589</v>
+        <v>68.93599992712512</v>
       </c>
       <c r="J7" t="n">
-        <v>40.24866001940589</v>
+        <v>38.55772975322707</v>
       </c>
       <c r="K7" t="n">
-        <v>122.0837011293478</v>
+        <v>120.3927708631689</v>
       </c>
       <c r="L7" t="n">
-        <v>286.2113410031475</v>
+        <v>284.5204107369688</v>
       </c>
       <c r="M7" t="n">
-        <v>472.5029193414116</v>
+        <v>470.8119890752328</v>
       </c>
       <c r="N7" t="n">
-        <v>655.6925533726208</v>
+        <v>654.0016231064419</v>
       </c>
       <c r="O7" t="n">
-        <v>818.3973204143288</v>
+        <v>816.7063901481499</v>
       </c>
       <c r="P7" t="n">
-        <v>938.2734861909073</v>
+        <v>936.5825559247285</v>
       </c>
       <c r="Q7" t="n">
-        <v>941.6956825609583</v>
+        <v>940.0047522947795</v>
       </c>
       <c r="R7" t="n">
-        <v>941.6956825609583</v>
+        <v>940.0047522947795</v>
       </c>
       <c r="S7" t="n">
-        <v>738.8795987435076</v>
+        <v>737.1886684773287</v>
       </c>
       <c r="T7" t="n">
-        <v>738.8795987435076</v>
+        <v>501.4696166455628</v>
       </c>
       <c r="U7" t="n">
-        <v>738.8795987435076</v>
+        <v>501.4696166455628</v>
       </c>
       <c r="V7" t="n">
-        <v>738.8795987435076</v>
+        <v>501.4696166455628</v>
       </c>
       <c r="W7" t="n">
-        <v>738.8795987435076</v>
+        <v>218.1392145767405</v>
       </c>
       <c r="X7" t="n">
-        <v>671.3555898991624</v>
+        <v>218.1392145767405</v>
       </c>
       <c r="Y7" t="n">
-        <v>671.3555898991624</v>
+        <v>218.1392145767405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1401.14840977443</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="C8" t="n">
-        <v>1401.14840977443</v>
+        <v>1221.374245537439</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.707280991098</v>
+        <v>835.9331167541063</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>835.9331167541063</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>419.0386782840841</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1790.601014841373</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W8" t="n">
-        <v>1790.601014841373</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="X8" t="n">
-        <v>1401.14840977443</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="Y8" t="n">
-        <v>1401.14840977443</v>
+        <v>1614.549747034508</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>850.162486145482</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1429.947025038442</v>
+        <v>1884.92869124988</v>
       </c>
       <c r="C11" t="n">
-        <v>1124.421338043963</v>
+        <v>1577.174995758414</v>
       </c>
       <c r="D11" t="n">
-        <v>826.6300237632215</v>
+        <v>1277.155672980685</v>
       </c>
       <c r="E11" t="n">
-        <v>511.6963133823563</v>
+        <v>959.9939541028334</v>
       </c>
       <c r="F11" t="n">
-        <v>349.2396660399795</v>
+        <v>628.5213216384147</v>
       </c>
       <c r="G11" t="n">
-        <v>349.2396660399795</v>
+        <v>300.7803721320215</v>
       </c>
       <c r="H11" t="n">
-        <v>112.8064301090605</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3027.092644649417</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2891.241856711424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2891.241856711424</v>
+        <v>3100.678562116917</v>
       </c>
       <c r="V11" t="n">
-        <v>2636.784861917533</v>
+        <v>3100.678562116917</v>
       </c>
       <c r="W11" t="n">
-        <v>2353.435641388411</v>
+        <v>2815.101333090809</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.632850824058</v>
+        <v>2511.070534029469</v>
       </c>
       <c r="Y11" t="n">
-        <v>1742.791956247249</v>
+        <v>2200.001630955674</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>544.120434447286</v>
+        <v>474.9331819977867</v>
       </c>
       <c r="C13" t="n">
-        <v>461.5651310158656</v>
+        <v>474.9331819977867</v>
       </c>
       <c r="D13" t="n">
-        <v>393.5818324209707</v>
+        <v>404.721874905905</v>
       </c>
       <c r="E13" t="n">
-        <v>325.6728347827636</v>
+        <v>334.5848687707111</v>
       </c>
       <c r="F13" t="n">
-        <v>255.996714498327</v>
+        <v>262.6807399892875</v>
       </c>
       <c r="G13" t="n">
-        <v>175.3924751003629</v>
+        <v>179.8484920943366</v>
       </c>
       <c r="H13" t="n">
-        <v>107.5637385644472</v>
+        <v>109.7917470614341</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>118.2509683006669</v>
+        <v>116.0672971727701</v>
       </c>
       <c r="K13" t="n">
-        <v>285.9915926045975</v>
+        <v>281.624250348804</v>
       </c>
       <c r="L13" t="n">
-        <v>536.0248156723861</v>
+        <v>529.4738022886959</v>
       </c>
       <c r="M13" t="n">
-        <v>808.221977204639</v>
+        <v>799.4872926930519</v>
       </c>
       <c r="N13" t="n">
-        <v>1077.317194429837</v>
+        <v>1066.398838790353</v>
       </c>
       <c r="O13" t="n">
-        <v>1325.927544665534</v>
+        <v>1312.825517898153</v>
       </c>
       <c r="P13" t="n">
-        <v>1531.709293636101</v>
+        <v>1516.423595740824</v>
       </c>
       <c r="Q13" t="n">
-        <v>1621.037073200141</v>
+        <v>1603.567704176967</v>
       </c>
       <c r="R13" t="n">
-        <v>1584.785898335308</v>
+        <v>1565.088520815147</v>
       </c>
       <c r="S13" t="n">
-        <v>1469.619629020448</v>
+        <v>1447.6942430033</v>
       </c>
       <c r="T13" t="n">
-        <v>1321.550391691272</v>
+        <v>1439.551287061937</v>
       </c>
       <c r="U13" t="n">
-        <v>1123.761414435764</v>
+        <v>1239.534301309442</v>
       </c>
       <c r="V13" t="n">
-        <v>1021.693776408711</v>
+        <v>1058.976762135869</v>
       </c>
       <c r="W13" t="n">
-        <v>826.0131888424788</v>
+        <v>861.0681660726507</v>
       </c>
       <c r="X13" t="n">
-        <v>679.5826811280523</v>
+        <v>712.4096498612373</v>
       </c>
       <c r="Y13" t="n">
-        <v>544.120434447286</v>
+        <v>574.7193946834844</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1572.977054970837</v>
+        <v>1681.115887455785</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1382.881067245904</v>
       </c>
       <c r="D14" t="n">
         <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784259</v>
+        <v>974.833763878426</v>
       </c>
       <c r="F14" t="n">
         <v>652.880006695592</v>
@@ -5273,55 +5273,55 @@
         <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129453</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404071</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N14" t="n">
         <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="T14" t="n">
-        <v>2997.817552720829</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="U14" t="n">
-        <v>2997.817552720829</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="V14" t="n">
-        <v>2750.651424711535</v>
+        <v>2858.790257196484</v>
       </c>
       <c r="W14" t="n">
-        <v>2474.593070967011</v>
+        <v>2582.73190345196</v>
       </c>
       <c r="X14" t="n">
-        <v>2180.081147187256</v>
+        <v>2288.219979672205</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.531119395046</v>
+        <v>1986.669951879994</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669550993</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.819930308277</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979802</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644371</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445325</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311663</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798494</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J16" t="n">
         <v>125.3967468362513</v>
@@ -5443,19 +5443,19 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966843</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852092</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553806</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592122</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,16 +5540,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2122.831274102045</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5680,16 +5680,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5780,16 +5780,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N21" t="n">
-        <v>1493.196009291336</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>2009.716291882317</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5908,25 +5908,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343043</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803436</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924275</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404054</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6014,13 +6014,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6063,28 +6063,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222403</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184686</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567326</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879418</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1750.280993198021</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C26" t="n">
-        <v>1452.04617298814</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D26" t="n">
-        <v>1161.545725491997</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E26" t="n">
-        <v>853.9028818957295</v>
+        <v>974.833763878426</v>
       </c>
       <c r="F26" t="n">
-        <v>652.8800066955919</v>
+        <v>652.8800066955922</v>
       </c>
       <c r="G26" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707837</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J26" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129458</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404075</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M26" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N26" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O26" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q26" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S26" t="n">
-        <v>3034.383511434015</v>
+        <v>3034.383511434017</v>
       </c>
       <c r="T26" t="n">
-        <v>3034.383511434015</v>
+        <v>2915.186369419875</v>
       </c>
       <c r="U26" t="n">
-        <v>2873.571463155802</v>
+        <v>2754.374321141661</v>
       </c>
       <c r="V26" t="n">
-        <v>2626.405335146509</v>
+        <v>2754.374321141661</v>
       </c>
       <c r="W26" t="n">
-        <v>2350.346981401985</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="X26" t="n">
-        <v>2055.83505762223</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y26" t="n">
-        <v>2055.83505762223</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H27" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J27" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K27" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="L27" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="M27" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N27" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O27" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P27" t="n">
         <v>2146.089571124861</v>
@@ -6364,7 +6364,7 @@
         <v>417.819930308278</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E28" t="n">
         <v>296.5093676443719</v>
@@ -6376,13 +6376,13 @@
         <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798494</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K28" t="n">
         <v>300.2831496757665</v>
@@ -6394,7 +6394,7 @@
         <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
         <v>1368.802215879041</v>
@@ -6424,7 +6424,7 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y28" t="n">
         <v>583.3517043592134</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1878.276185262856</v>
+        <v>1879.967115529035</v>
       </c>
       <c r="C29" t="n">
-        <v>1580.041365052974</v>
+        <v>1581.732295319154</v>
       </c>
       <c r="D29" t="n">
-        <v>1289.540917556831</v>
+        <v>1291.23184782301</v>
       </c>
       <c r="E29" t="n">
-        <v>981.8980739605636</v>
+        <v>983.5890042267429</v>
       </c>
       <c r="F29" t="n">
-        <v>659.9443167777297</v>
+        <v>661.6352470439087</v>
       </c>
       <c r="G29" t="n">
-        <v>341.7222425529212</v>
+        <v>343.4131728191002</v>
       </c>
       <c r="H29" t="n">
-        <v>112.5798734066001</v>
+        <v>114.2708036727789</v>
       </c>
       <c r="I29" t="n">
-        <v>69.18343778625324</v>
+        <v>70.87436805243208</v>
       </c>
       <c r="J29" t="n">
-        <v>213.8332106950813</v>
+        <v>216.5109641124643</v>
       </c>
       <c r="K29" t="n">
-        <v>665.8669284521163</v>
+        <v>575.4933201399263</v>
       </c>
       <c r="L29" t="n">
-        <v>1252.238581900218</v>
+        <v>1068.813611858455</v>
       </c>
       <c r="M29" t="n">
-        <v>1891.290843674372</v>
+        <v>1707.865873632609</v>
       </c>
       <c r="N29" t="n">
-        <v>2419.102127311834</v>
+        <v>2235.677157270071</v>
       </c>
       <c r="O29" t="n">
-        <v>2926.138837040191</v>
+        <v>2768.768119891973</v>
       </c>
       <c r="P29" t="n">
-        <v>3274.326329171713</v>
+        <v>3210.006973753068</v>
       </c>
       <c r="Q29" t="n">
-        <v>3459.171889312662</v>
+        <v>3487.90389562359</v>
       </c>
       <c r="R29" t="n">
-        <v>3459.171889312662</v>
+        <v>3543.718402621604</v>
       </c>
       <c r="S29" t="n">
-        <v>3387.599015540901</v>
+        <v>3543.718402621604</v>
       </c>
       <c r="T29" t="n">
-        <v>3259.039094387506</v>
+        <v>3465.61966155724</v>
       </c>
       <c r="U29" t="n">
-        <v>3098.227046109293</v>
+        <v>3304.807613279027</v>
       </c>
       <c r="V29" t="n">
-        <v>2851.060918099999</v>
+        <v>3057.641485269733</v>
       </c>
       <c r="W29" t="n">
-        <v>2575.002564355475</v>
+        <v>2781.583131525209</v>
       </c>
       <c r="X29" t="n">
-        <v>2485.380277479275</v>
+        <v>2487.071207745455</v>
       </c>
       <c r="Y29" t="n">
-        <v>2183.830249687064</v>
+        <v>2185.521179953244</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>868.5494209262843</v>
+        <v>870.2403511924631</v>
       </c>
       <c r="C30" t="n">
-        <v>717.8951904863765</v>
+        <v>719.5861207525553</v>
       </c>
       <c r="D30" t="n">
-        <v>587.8062231078568</v>
+        <v>589.4971533740356</v>
       </c>
       <c r="E30" t="n">
-        <v>451.3597322187445</v>
+        <v>453.0506624849233</v>
       </c>
       <c r="F30" t="n">
-        <v>326.9279261018763</v>
+        <v>328.6188563680551</v>
       </c>
       <c r="G30" t="n">
-        <v>206.8681081737407</v>
+        <v>208.5590384399196</v>
       </c>
       <c r="H30" t="n">
-        <v>118.5706917743416</v>
+        <v>120.2616220405205</v>
       </c>
       <c r="I30" t="n">
-        <v>69.18343778625324</v>
+        <v>70.87436805243208</v>
       </c>
       <c r="J30" t="n">
-        <v>182.2984200059806</v>
+        <v>183.9893502721595</v>
       </c>
       <c r="K30" t="n">
-        <v>182.2984200059806</v>
+        <v>503.7284963343859</v>
       </c>
       <c r="L30" t="n">
-        <v>665.8645059042939</v>
+        <v>987.2945822326992</v>
       </c>
       <c r="M30" t="n">
-        <v>665.8645059042939</v>
+        <v>987.2945822326992</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.642477114853</v>
+        <v>1467.06825172069</v>
       </c>
       <c r="O30" t="n">
-        <v>1838.162759705834</v>
+        <v>1983.588534311671</v>
       </c>
       <c r="P30" t="n">
-        <v>2243.784128422231</v>
+        <v>2389.209903028068</v>
       </c>
       <c r="Q30" t="n">
-        <v>2387.518972761889</v>
+        <v>2389.209903028068</v>
       </c>
       <c r="R30" t="n">
-        <v>2363.601929659954</v>
+        <v>2365.292859926133</v>
       </c>
       <c r="S30" t="n">
-        <v>2228.671252559823</v>
+        <v>2230.362182826002</v>
       </c>
       <c r="T30" t="n">
-        <v>2051.687440758731</v>
+        <v>2053.37837102491</v>
       </c>
       <c r="U30" t="n">
-        <v>1841.624297437373</v>
+        <v>1843.315227703551</v>
       </c>
       <c r="V30" t="n">
-        <v>1619.08429580844</v>
+        <v>1620.775226074619</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.967049941727</v>
+        <v>1390.657980207905</v>
       </c>
       <c r="X30" t="n">
-        <v>1199.659972291738</v>
+        <v>1201.350902557917</v>
       </c>
       <c r="Y30" t="n">
-        <v>1020.345755367246</v>
+        <v>1022.036685633424</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.148677037238</v>
+        <v>501.8396073034173</v>
       </c>
       <c r="C31" t="n">
-        <v>424.8842403904156</v>
+        <v>426.5751706565949</v>
       </c>
       <c r="D31" t="n">
-        <v>364.1918085801186</v>
+        <v>365.8827388462979</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5736777265095</v>
+        <v>305.2646079926888</v>
       </c>
       <c r="F31" t="n">
-        <v>241.1884242266707</v>
+        <v>242.87935449285</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8750516133045</v>
+        <v>169.5659818794838</v>
       </c>
       <c r="H31" t="n">
-        <v>107.337181861987</v>
+        <v>109.0281121281659</v>
       </c>
       <c r="I31" t="n">
-        <v>69.18343778625324</v>
+        <v>70.87436805243208</v>
       </c>
       <c r="J31" t="n">
-        <v>132.461056918389</v>
+        <v>134.1519871845679</v>
       </c>
       <c r="K31" t="n">
-        <v>307.3474597579042</v>
+        <v>309.0383900240831</v>
       </c>
       <c r="L31" t="n">
-        <v>564.5264613612773</v>
+        <v>566.2173916274562</v>
       </c>
       <c r="M31" t="n">
-        <v>843.8694014291145</v>
+        <v>845.5603316952936</v>
       </c>
       <c r="N31" t="n">
-        <v>1120.110397189897</v>
+        <v>1121.801327456076</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.866525961178</v>
+        <v>1377.557456227358</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.79405346733</v>
+        <v>1590.48498373351</v>
       </c>
       <c r="Q31" t="n">
-        <v>1685.267611566954</v>
+        <v>1686.958541833134</v>
       </c>
       <c r="R31" t="n">
-        <v>1656.30730348672</v>
+        <v>1657.998233752899</v>
       </c>
       <c r="S31" t="n">
-        <v>1548.431900956457</v>
+        <v>1550.122831222636</v>
       </c>
       <c r="T31" t="n">
-        <v>1407.65353041188</v>
+        <v>1409.344460678059</v>
       </c>
       <c r="U31" t="n">
-        <v>1217.155419940969</v>
+        <v>1218.846350207148</v>
       </c>
       <c r="V31" t="n">
-        <v>1046.116756048982</v>
+        <v>1047.807686315161</v>
       </c>
       <c r="W31" t="n">
-        <v>857.7270352673479</v>
+        <v>859.4179655335272</v>
       </c>
       <c r="X31" t="n">
-        <v>718.5873943375193</v>
+        <v>720.2783246036986</v>
       </c>
       <c r="Y31" t="n">
-        <v>590.416014441351</v>
+        <v>592.1069447075303</v>
       </c>
     </row>
     <row r="32">
@@ -6683,46 +6683,46 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K32" t="n">
         <v>565.7512566404057</v>
       </c>
       <c r="L32" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M32" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N32" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O32" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q32" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S32" t="n">
         <v>3071.119566829236</v>
@@ -6734,10 +6734,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
         <v>2147.691468840156</v>
@@ -6774,28 +6774,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>174.7633905351325</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646554</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>67.69877031229984</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>149.5338114222417</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L34" t="n">
-        <v>313.6614512960415</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M34" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N34" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O34" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6926,52 +6926,52 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404058</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7020,7 +7020,7 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="M36" t="n">
         <v>1223.947919817482</v>
@@ -7075,7 +7075,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
         <v>149.5651460634914</v>
@@ -7084,34 +7084,34 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462919</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960412</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343052</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655144</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072225</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.202162476281</v>
@@ -7138,7 +7138,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7166,31 +7166,31 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129428</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404048</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N38" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7199,25 +7199,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291065</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446707</v>
+        <v>278.5901810446702</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184705</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567345</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P40" t="n">
         <v>1094.77996610623</v>
@@ -7357,25 +7357,25 @@
         <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="41">
@@ -7412,16 +7412,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404056</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,7 +7430,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
         <v>3105.956385205776</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>346.9752758473783</v>
+        <v>346.0196676966392</v>
       </c>
       <c r="L42" t="n">
-        <v>830.5413617456916</v>
+        <v>346.0196676966392</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.313011372373</v>
+        <v>973.7913173233205</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7573,19 +7573,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.202162476281</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1555.732553137393</v>
+        <v>1680.691614385271</v>
       </c>
       <c r="C44" t="n">
-        <v>1396.305923307104</v>
+        <v>1409.673974289025</v>
       </c>
       <c r="D44" t="n">
-        <v>1135.250664421582</v>
+        <v>1146.390706906516</v>
       </c>
       <c r="E44" t="n">
-        <v>857.0530094359372</v>
+        <v>865.9650434238845</v>
       </c>
       <c r="F44" t="n">
-        <v>564.5444408637254</v>
+        <v>571.2284663546859</v>
       </c>
       <c r="G44" t="n">
-        <v>275.7675552495389</v>
+        <v>280.2235722435126</v>
       </c>
       <c r="H44" t="n">
-        <v>76.07037471384012</v>
+        <v>78.29838321082703</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411552</v>
@@ -7649,49 +7649,49 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404056</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M44" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3063.828700044637</v>
+        <v>3061.60069154765</v>
       </c>
       <c r="T44" t="n">
-        <v>2964.713967501864</v>
+        <v>2960.25795050789</v>
       </c>
       <c r="U44" t="n">
-        <v>2833.347107834273</v>
+        <v>2826.663082343312</v>
       </c>
       <c r="V44" t="n">
-        <v>2615.626168435602</v>
+        <v>2606.714134447654</v>
       </c>
       <c r="W44" t="n">
-        <v>2369.0130033017</v>
+        <v>2357.872960816765</v>
       </c>
       <c r="X44" t="n">
-        <v>2103.946268132568</v>
+        <v>2090.578217150646</v>
       </c>
       <c r="Y44" t="n">
-        <v>1831.841428950979</v>
+        <v>1959.028498695844</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>346.0196676966392</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966392</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233205</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>286.9680466807447</v>
+        <v>302.564106159653</v>
       </c>
       <c r="C46" t="n">
-        <v>241.1487986445445</v>
+        <v>254.5168496264659</v>
       </c>
       <c r="D46" t="n">
-        <v>209.9015554448698</v>
+        <v>221.0415979298043</v>
       </c>
       <c r="E46" t="n">
-        <v>178.7286132018829</v>
+        <v>187.6406471898305</v>
       </c>
       <c r="F46" t="n">
-        <v>145.7885483126664</v>
+        <v>152.4725738036271</v>
       </c>
       <c r="G46" t="n">
-        <v>101.9203643099225</v>
+        <v>106.3763813038963</v>
       </c>
       <c r="H46" t="n">
-        <v>70.82768316922707</v>
+        <v>73.05569166621396</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411552</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>616.2839781129653</v>
+        <v>614.1003069850685</v>
       </c>
       <c r="N46" t="n">
-        <v>799.4736121441745</v>
+        <v>797.2899410162777</v>
       </c>
       <c r="O46" t="n">
-        <v>962.356211011775</v>
+        <v>1079.721628016933</v>
       </c>
       <c r="P46" t="n">
-        <v>1082.232376788354</v>
+        <v>1199.597793793512</v>
       </c>
       <c r="Q46" t="n">
-        <v>1207.565164245249</v>
+        <v>1242.728419666652</v>
       </c>
       <c r="R46" t="n">
-        <v>1207.565164245249</v>
+        <v>1240.985291700052</v>
       </c>
       <c r="S46" t="n">
-        <v>1129.134950325609</v>
+        <v>1160.327069283425</v>
       </c>
       <c r="T46" t="n">
-        <v>1017.801768391653</v>
+        <v>1046.765878852483</v>
       </c>
       <c r="U46" t="n">
-        <v>856.748846531365</v>
+        <v>883.4849484952077</v>
       </c>
       <c r="V46" t="n">
-        <v>715.1553712499997</v>
+        <v>739.6634647168556</v>
       </c>
       <c r="W46" t="n">
-        <v>556.2108390789879</v>
+        <v>578.4909240488569</v>
       </c>
       <c r="X46" t="n">
-        <v>446.5163867597815</v>
+        <v>466.5684632326636</v>
       </c>
       <c r="Y46" t="n">
-        <v>347.7901954742355</v>
+        <v>365.6142634501306</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>320.4097985927658</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>631.6966735130657</v>
       </c>
       <c r="N2" t="n">
-        <v>151.2995692481589</v>
+        <v>631.0901132531225</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>572.0319687722566</v>
       </c>
       <c r="M3" t="n">
-        <v>446.4827049191497</v>
+        <v>574.3587439646502</v>
       </c>
       <c r="N3" t="n">
-        <v>588.4803630967402</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>363.1983939180928</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>635.21979164583</v>
       </c>
       <c r="M5" t="n">
-        <v>652.8333018403009</v>
+        <v>436.2498619435601</v>
       </c>
       <c r="N5" t="n">
-        <v>652.2267415803577</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>193.402571341668</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,13 +8292,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>329.4349604054667</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>547.0818073401778</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
@@ -8307,7 +8307,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>595.7958091314625</v>
+        <v>574.6591808042273</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
@@ -8459,7 +8459,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046934</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>117.4945034435369</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,7 +9015,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>108.8653421701425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,13 +9252,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>110.5765941352903</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9477,10 +9477,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,13 +9489,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>461.5665676450056</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,16 +9726,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>335.1420048916687</v>
+        <v>345.5977578821526</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,25 +9951,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10191,16 +10191,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>92.38712204931178</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238539</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.1748646101141</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,16 +10428,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>203.3790190010273</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416653</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>85.37211285416653</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684343</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10902,25 +10902,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>499.3034269858954</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931178</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>377.3304183063261</v>
+        <v>262.1075997502993</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691813</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>262.1075997502993</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691813</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>165.1200968588043</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.2578115993124</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>52.38615779291231</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>80.28083156281244</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>136.69800847063</v>
       </c>
       <c r="U11" t="n">
-        <v>166.4218859121829</v>
+        <v>163.4025694662298</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>254.1181532579693</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.58262214682379</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>83.93547880912317</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>140.732746985952</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.49927372303712</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077823</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>188.1950278476836</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T14" t="n">
-        <v>91.07402281580542</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U14" t="n">
         <v>159.203927795431</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>119.7215731628693</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>9.269151347860138</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>49.95656828814132</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>202.8407405345192</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>108.2693717512798</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>141.3552979315345</v>
       </c>
     </row>
     <row r="45">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>812018.6811407732</v>
+        <v>810231.8460923259</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>812018.6811407732</v>
+        <v>810231.8460923259</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772115.2412667887</v>
+        <v>768122.1368335816</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>785182.1539463742</v>
+        <v>785182.1539463741</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>829691.9811278601</v>
+        <v>829691.98112786</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>785182.1539463742</v>
+        <v>785182.1539463743</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813142.2051076486</v>
+        <v>819834.790257903</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>820858.283086673</v>
+        <v>818158.802369626</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522963.3164707346</v>
+        <v>522963.3164707345</v>
       </c>
       <c r="C2" t="n">
         <v>522963.3164707346</v>
       </c>
       <c r="D2" t="n">
-        <v>522963.3164707345</v>
+        <v>522963.3164707344</v>
       </c>
       <c r="E2" t="n">
-        <v>482238.3053494893</v>
+        <v>479413.9144089276</v>
       </c>
       <c r="F2" t="n">
-        <v>491480.755781391</v>
+        <v>491480.7557813911</v>
       </c>
       <c r="G2" t="n">
-        <v>522963.3164707338</v>
+        <v>522963.3164707351</v>
       </c>
       <c r="H2" t="n">
-        <v>522963.3164707344</v>
+        <v>522963.3164707351</v>
       </c>
       <c r="I2" t="n">
         <v>522963.3164707343</v>
@@ -26338,22 +26338,22 @@
         <v>491480.7557813911</v>
       </c>
       <c r="K2" t="n">
-        <v>511257.3773344874</v>
+        <v>515991.1570749111</v>
       </c>
       <c r="L2" t="n">
         <v>522963.3164707346</v>
       </c>
       <c r="M2" t="n">
-        <v>522963.3164707342</v>
+        <v>522963.3164707341</v>
       </c>
       <c r="N2" t="n">
-        <v>522963.316470734</v>
+        <v>522963.3164707339</v>
       </c>
       <c r="O2" t="n">
         <v>522963.3164707338</v>
       </c>
       <c r="P2" t="n">
-        <v>516715.0910269681</v>
+        <v>514805.7022271056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168603.146146042</v>
+        <v>161519.7758511339</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27429.83301018049</v>
+        <v>33995.50386746958</v>
       </c>
       <c r="E3" t="n">
-        <v>124678.5646443106</v>
+        <v>122913.981914697</v>
       </c>
       <c r="F3" t="n">
-        <v>5774.366493401556</v>
+        <v>7538.949223015127</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301438</v>
+        <v>29094.9558730144</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>171958.9522395051</v>
+        <v>164664.0975278405</v>
       </c>
       <c r="K3" t="n">
-        <v>28500.95845864677</v>
+        <v>35705.43294758422</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602872</v>
+        <v>58189.91174602876</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>46121.92123989164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40323.69721303722</v>
+        <v>38559.11448342364</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250801.5650005038</v>
+        <v>254711.2500486931</v>
       </c>
       <c r="C4" t="n">
-        <v>250801.5650005038</v>
+        <v>254711.250048693</v>
       </c>
       <c r="D4" t="n">
         <v>234467.8177985447</v>
       </c>
       <c r="E4" t="n">
-        <v>180275.0656078038</v>
+        <v>178046.0761932736</v>
       </c>
       <c r="F4" t="n">
         <v>187569.1423169351</v>
@@ -26442,7 +26442,7 @@
         <v>187569.1423169351</v>
       </c>
       <c r="K4" t="n">
-        <v>203496.4535776569</v>
+        <v>207308.8531405956</v>
       </c>
       <c r="L4" t="n">
         <v>212173.4629604171</v>
@@ -26451,13 +26451,13 @@
         <v>212173.4629604171</v>
       </c>
       <c r="N4" t="n">
+        <v>212173.4629604171</v>
+      </c>
+      <c r="O4" t="n">
         <v>212173.462960417</v>
       </c>
-      <c r="O4" t="n">
-        <v>212173.4629604171</v>
-      </c>
       <c r="P4" t="n">
-        <v>207288.5443263606</v>
+        <v>205796.3104151332</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64216.58161474847</v>
+        <v>62931.47461245257</v>
       </c>
       <c r="C5" t="n">
-        <v>64216.58161474847</v>
+        <v>62931.47461245257</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>54505.48298799188</v>
+        <v>54320.04960612203</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890912</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26491,16 +26491,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890913</v>
       </c>
       <c r="K5" t="n">
-        <v>60481.16517133376</v>
+        <v>61766.27217362969</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551965</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
-        <v>57562.96279460243</v>
+        <v>57377.52941273258</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39342.02370944033</v>
+        <v>43800.81595845499</v>
       </c>
       <c r="C6" t="n">
-        <v>207945.1698554824</v>
+        <v>205320.591809589</v>
       </c>
       <c r="D6" t="n">
-        <v>191480.2083848362</v>
+        <v>184914.537527547</v>
       </c>
       <c r="E6" t="n">
-        <v>122779.1921093831</v>
+        <v>123983.6363428976</v>
       </c>
       <c r="F6" t="n">
-        <v>243024.9574621451</v>
+        <v>241151.8141784305</v>
       </c>
       <c r="G6" t="n">
-        <v>223525.1283217826</v>
+        <v>223525.1283217838</v>
       </c>
       <c r="H6" t="n">
-        <v>252620.0841947976</v>
+        <v>252620.0841947983</v>
       </c>
       <c r="I6" t="n">
-        <v>252620.0841947975</v>
+        <v>252620.0841947973</v>
       </c>
       <c r="J6" t="n">
-        <v>76840.37171604173</v>
+        <v>84026.66587360509</v>
       </c>
       <c r="K6" t="n">
-        <v>218778.80012685</v>
+        <v>211186.5568841505</v>
       </c>
       <c r="L6" t="n">
         <v>194430.1724487691</v>
       </c>
       <c r="M6" t="n">
-        <v>206498.1629549058</v>
+        <v>206498.1629549057</v>
       </c>
       <c r="N6" t="n">
-        <v>252620.0841947973</v>
+        <v>252620.0841947971</v>
       </c>
       <c r="O6" t="n">
-        <v>212296.3869817599</v>
+        <v>214060.9697113734</v>
       </c>
       <c r="P6" t="n">
-        <v>251863.5839060051</v>
+        <v>251603.7326949514</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,7 +26707,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431643</v>
@@ -26719,13 +26719,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
     </row>
     <row r="3">
@@ -26756,28 +26756,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>503.1082502425736</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="C4" t="n">
-        <v>503.1082502425736</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,7 +26799,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26808,22 +26808,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>776.4890963014444</v>
+      </c>
+      <c r="K4" t="n">
+        <v>885.9296006554009</v>
+      </c>
+      <c r="L4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="M4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="N4" t="n">
         <v>776.489096301444</v>
-      </c>
-      <c r="J4" t="n">
-        <v>776.489096301444</v>
-      </c>
-      <c r="K4" t="n">
-        <v>864.7929723281654</v>
-      </c>
-      <c r="L4" t="n">
-        <v>776.489096301444</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.489096301444</v>
-      </c>
-      <c r="N4" t="n">
-        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.489096301444</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="F2" t="n">
-        <v>7.217958116751944</v>
+        <v>9.42368652876891</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126798</v>
+        <v>36.368694841268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.40462151629649</v>
+        <v>48.19889310427955</v>
       </c>
       <c r="K2" t="n">
-        <v>7.217958116751902</v>
+        <v>9.423686528768924</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253591</v>
+        <v>72.73738968253595</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.40462151629652</v>
+        <v>48.19889310427955</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>503.1082502425736</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.30387602672147</v>
+        <v>109.4405043539567</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.1082502425736</v>
+        <v>481.9716219153387</v>
       </c>
       <c r="K4" t="n">
-        <v>88.30387602672147</v>
+        <v>109.4405043539565</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="K2" t="n">
-        <v>7.217958116751944</v>
+        <v>9.42368652876891</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126798</v>
+        <v>36.368694841268</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.40462151629649</v>
+        <v>48.19889310427955</v>
       </c>
       <c r="P2" t="n">
-        <v>7.217958116751902</v>
+        <v>9.423686528768924</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.1082502425736</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.30387602672147</v>
+        <v>109.4405043539567</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,13 +27385,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>119.565409304691</v>
+        <v>60.52150036290396</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.32928500772707</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>83.17282707955972</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>112.7988303938611</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>131.728785470928</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>180.7346249283561</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>239.1473024916255</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134.727170196355</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>96.91726344503473</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>138.1290805726841</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27834,10 +27834,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>164.890750238945</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,7 +27853,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>41.02267685616181</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>193.1157263719388</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="C11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="D11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="E11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="F11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="G11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="H11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="I11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="T11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="U11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="V11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="W11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="X11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="Y11" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="C13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="D13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="E13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="F13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="G13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="H13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="I13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="J13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="K13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="L13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="M13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="N13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="O13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="P13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="R13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="S13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="T13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="U13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="V13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="W13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="X13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.77331635756447</v>
+        <v>84.5675879455475</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="17">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634528381</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,10 +28761,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634528381</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>5.63600263452814</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L25" t="n">
         <v>130.3599693155844</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>93.99127447431643</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.9967910618223357</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431643</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431643</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431643</v>
@@ -29548,16 +29548,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>67.67384730911931</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431643</v>
@@ -29928,16 +29928,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>35.71049010668869</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634529262</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,10 +30183,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5.636002634529465</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>35.71049010668915</v>
+        <v>35.71049010668865</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733238</v>
       </c>
       <c r="S41" t="n">
         <v>130.3599693155844</v>
@@ -30645,22 +30645,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>5.63600263452949</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="C44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="D44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="E44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="F44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="G44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="H44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="I44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733238</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="X44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="Y44" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="C46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="D46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="E46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="F46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="G46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="H46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="I46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30885,43 +30885,43 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1796281069621273</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.1420111988324</v>
+        <v>40.10952475059516</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="S46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="T46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="U46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="V46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="W46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="X46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.1420111988324</v>
+        <v>120.9362827868154</v>
       </c>
     </row>
   </sheetData>
@@ -32710,22 +32710,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.162724991664805e-13</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.442463167336999e-13</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.605018206559655e-13</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.630989079136664e-13</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.540096738023552e-13</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.314436934505772e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -32792,16 +32792,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.061899415360114e-13</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.239186531165615e-13</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.271984111330964e-13</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.16361695960085e-13</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -33184,22 +33184,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.162724991664805e-13</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.442463167336999e-13</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.605018206559655e-13</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.630989079136664e-13</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.540096738023552e-13</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.314436934505772e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -33266,16 +33266,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.061899415360114e-13</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.239186531165615e-13</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.271984111330964e-13</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.16361695960085e-13</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33421,22 +33421,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.162724991664805e-13</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.442463167336999e-13</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.605018206559655e-13</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.630989079136664e-13</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.540096738023552e-13</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.314436934505772e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -33503,16 +33503,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.061899415360114e-13</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.239186531165615e-13</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.271984111330964e-13</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.16361695960085e-13</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33658,22 +33658,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.162724991664805e-13</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.442463167336999e-13</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.605018206559655e-13</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.630989079136664e-13</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.540096738023552e-13</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1.314436934505772e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -33740,16 +33740,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.061899415360114e-13</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.239186531165615e-13</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.271984111330964e-13</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.16361695960085e-13</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33895,22 +33895,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.162724991664805e-13</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.442463167336999e-13</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.605018206559655e-13</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.630989079136664e-13</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.540096738023552e-13</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.314436934505772e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -33977,16 +33977,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.061899415360114e-13</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.239186531165615e-13</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.271984111330964e-13</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.16361695960085e-13</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34132,22 +34132,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.162724991664805e-13</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.442463167336999e-13</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.605018206559655e-13</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.630989079136664e-13</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.540096738023552e-13</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1.314436934505772e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -34214,16 +34214,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.061899415360114e-13</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.239186531165615e-13</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.271984111330964e-13</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.16361695960085e-13</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34369,22 +34369,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.162724991664805e-13</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.442463167336999e-13</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.605018206559655e-13</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.630989079136664e-13</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.540096738023552e-13</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.314436934505772e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -34451,16 +34451,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.061899415360114e-13</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.239186531165615e-13</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.271984111330964e-13</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.16361695960085e-13</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>167.1616288622741</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="N2" t="n">
-        <v>2.181077910374756</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="M3" t="n">
-        <v>354.0955828698378</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="N3" t="n">
-        <v>503.1082502425736</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>270.510835029204</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="M5" t="n">
-        <v>503.1082502425736</v>
+        <v>286.5248103458328</v>
       </c>
       <c r="N5" t="n">
-        <v>503.1082502425736</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>43.10112410074278</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>239.8380250721334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>457.0214604832595</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,7 +35027,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>503.1082502425736</v>
+        <v>481.9716219153383</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>362.1450102553815</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>56.6988288854054</v>
+        <v>54.49310047338843</v>
       </c>
       <c r="K13" t="n">
-        <v>169.4349740443744</v>
+        <v>167.2292456323575</v>
       </c>
       <c r="L13" t="n">
-        <v>252.5588111795844</v>
+        <v>250.3530827675675</v>
       </c>
       <c r="M13" t="n">
-        <v>274.9466278103564</v>
+        <v>272.7408993983395</v>
       </c>
       <c r="N13" t="n">
-        <v>271.8133507325232</v>
+        <v>269.6076223205063</v>
       </c>
       <c r="O13" t="n">
-        <v>251.1215658946433</v>
+        <v>248.9158374826264</v>
       </c>
       <c r="P13" t="n">
-        <v>207.8603524955226</v>
+        <v>205.6546240835057</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.23008036771695</v>
+        <v>88.02435195569998</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>35.05004611020358</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,7 +35735,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>23.49322931597588</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446891</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,13 +35972,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>23.49322931597565</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873203</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,13 +36209,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>374.483202825691</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287077</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873203</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N24" t="n">
-        <v>249.769892037502</v>
+        <v>260.2256450279861</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>88.29766032133811</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376044</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>147.1076727879113</v>
       </c>
       <c r="K29" t="n">
-        <v>456.599714906096</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>645.5073351254081</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O29" t="n">
-        <v>512.1582926549056</v>
+        <v>538.4757198201029</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698315</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696873</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.1867114542002</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
         <v>97.44803848446891</v>
@@ -37069,22 +37069,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>113.782083667694</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.636002634529619</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
@@ -37306,22 +37306,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37388,16 +37388,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565492</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681948</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260882</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37622,25 +37622,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>409.2430801289772</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>118.3721477934991</v>
+        <v>118.3721477934986</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37780,22 +37780,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7334829729928</v>
+        <v>172.510664416966</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37950,13 +37950,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>172.510664416966</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38181,19 +38181,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>311.3153226516244</v>
+        <v>309.1095942396074</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.527877644041</v>
+        <v>285.2845323238943</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.5987752089849</v>
+        <v>43.56628876074764</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
